--- a/runs/run814/NotionalETEOutput814.xlsx
+++ b/runs/run814/NotionalETEOutput814.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT1_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1_139.MISSILE_SOMERSAULT1_139</t>
+    <t>MISSILE_BRAVER2_485.MISSILE_BRAVER2_485</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1535.32141610072</v>
+        <v>-1432.389983153191</v>
       </c>
       <c r="J2">
-        <v>1972.953648492534</v>
+        <v>1932.763497251551</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1431.346441056004</v>
+        <v>-1412.922444898587</v>
       </c>
       <c r="J3">
-        <v>1880.943252911871</v>
+        <v>1967.919858252431</v>
       </c>
       <c r="K3">
-        <v>313.290082961363</v>
+        <v>314.4555041677061</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1386.006695172027</v>
+        <v>-1373.248466112284</v>
       </c>
       <c r="J4">
-        <v>1848.577773440443</v>
+        <v>1807.871614795638</v>
       </c>
       <c r="K4">
-        <v>614.7975272326951</v>
+        <v>583.6004804204132</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1352.336602095681</v>
+        <v>-1342.52737382846</v>
       </c>
       <c r="J5">
-        <v>1816.175643313553</v>
+        <v>1932.073598960664</v>
       </c>
       <c r="K5">
-        <v>858.6058943907016</v>
+        <v>870.5489068959266</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1357.660808528749</v>
+        <v>-1436.764279210784</v>
       </c>
       <c r="J6">
-        <v>1810.289063734668</v>
+        <v>1803.118580900787</v>
       </c>
       <c r="K6">
-        <v>1131.303034467631</v>
+        <v>1104.386371443025</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1370.648335119009</v>
+        <v>-1396.502826949274</v>
       </c>
       <c r="J7">
-        <v>1780.943035844893</v>
+        <v>1782.567709732355</v>
       </c>
       <c r="K7">
-        <v>1341.683734707628</v>
+        <v>1331.295331053955</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1251.90873955824</v>
+        <v>-1288.836910501092</v>
       </c>
       <c r="J8">
-        <v>1644.329393233357</v>
+        <v>1747.892404502489</v>
       </c>
       <c r="K8">
-        <v>1566.76415772394</v>
+        <v>1591.048614206502</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.39312427477958</v>
+        <v>-103.3415812234487</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1282.993718880974</v>
+        <v>-1302.512568135755</v>
       </c>
       <c r="J9">
-        <v>1650.287789607619</v>
+        <v>1607.821015775311</v>
       </c>
       <c r="K9">
-        <v>1894.463643069525</v>
+        <v>1812.585059674821</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>222.5342966594324</v>
+        <v>220.0026743464443</v>
       </c>
       <c r="G10">
-        <v>-85.67813334093972</v>
+        <v>-85.56638413288904</v>
       </c>
       <c r="H10">
-        <v>889.6927508730054</v>
+        <v>860.1680955706931</v>
       </c>
       <c r="I10">
-        <v>-1261.63776960036</v>
+        <v>-1258.856041326854</v>
       </c>
       <c r="J10">
-        <v>1623.22011213956</v>
+        <v>1568.670251262738</v>
       </c>
       <c r="K10">
-        <v>2031.670670359761</v>
+        <v>2059.539774117919</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>162.0715938845915</v>
+        <v>164.7788040290187</v>
       </c>
       <c r="G11">
-        <v>-70.11820443220569</v>
+        <v>-69.62045791935874</v>
       </c>
       <c r="H11">
-        <v>1097.564623505402</v>
+        <v>1098.419230351726</v>
       </c>
       <c r="I11">
-        <v>-1192.554561169311</v>
+        <v>-1239.432364580174</v>
       </c>
       <c r="J11">
-        <v>1519.960964278407</v>
+        <v>1563.603215862901</v>
       </c>
       <c r="K11">
-        <v>2161.827115668626</v>
+        <v>2268.440186270892</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>140.8619665660391</v>
+        <v>139.8601345389971</v>
       </c>
       <c r="G12">
-        <v>-52.40610249793736</v>
+        <v>-52.60074817405415</v>
       </c>
       <c r="H12">
-        <v>1174.868413698328</v>
+        <v>1230.628432417813</v>
       </c>
       <c r="I12">
-        <v>-1141.917371188349</v>
+        <v>-1191.365055069539</v>
       </c>
       <c r="J12">
-        <v>1547.861573548302</v>
+        <v>1545.304920387813</v>
       </c>
       <c r="K12">
-        <v>2391.630891949945</v>
+        <v>2315.823726484898</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.3919898439113</v>
+        <v>127.1389731006895</v>
       </c>
       <c r="G13">
-        <v>-32.97753332799287</v>
+        <v>-33.97252305899675</v>
       </c>
       <c r="H13">
-        <v>1317.053984025509</v>
+        <v>1288.24909875718</v>
       </c>
       <c r="I13">
-        <v>-1115.247238790512</v>
+        <v>-1139.708194742033</v>
       </c>
       <c r="J13">
-        <v>1493.619940245871</v>
+        <v>1438.28644911756</v>
       </c>
       <c r="K13">
-        <v>2397.442788612244</v>
+        <v>2393.371416938538</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.7706117541252</v>
+        <v>104.4577607424768</v>
       </c>
       <c r="G14">
-        <v>-17.83598569709668</v>
+        <v>-17.15853744358335</v>
       </c>
       <c r="H14">
-        <v>1343.512196165664</v>
+        <v>1386.331554645917</v>
       </c>
       <c r="I14">
-        <v>-1090.443141581186</v>
+        <v>-1106.518705848464</v>
       </c>
       <c r="J14">
-        <v>1373.807512514233</v>
+        <v>1365.485243173594</v>
       </c>
       <c r="K14">
-        <v>2709.552714426542</v>
+        <v>2749.37525873169</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.4446980135665</v>
+        <v>103.6348834134633</v>
       </c>
       <c r="G15">
-        <v>-0.9169236023871641</v>
+        <v>-0.9305501114541599</v>
       </c>
       <c r="H15">
-        <v>1428.502223974368</v>
+        <v>1415.028298144691</v>
       </c>
       <c r="I15">
-        <v>-1069.383483416377</v>
+        <v>-1027.180544130881</v>
       </c>
       <c r="J15">
-        <v>1364.621795979018</v>
+        <v>1421.3639219975</v>
       </c>
       <c r="K15">
-        <v>2825.404216663816</v>
+        <v>2735.184593740534</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.26990259641805</v>
+        <v>97.39234872781748</v>
       </c>
       <c r="G16">
-        <v>15.68915604443605</v>
+        <v>16.23276022491317</v>
       </c>
       <c r="H16">
-        <v>1393.682616426097</v>
+        <v>1373.44588367132</v>
       </c>
       <c r="I16">
-        <v>-984.9848178800572</v>
+        <v>-1054.914379413039</v>
       </c>
       <c r="J16">
-        <v>1363.385573681512</v>
+        <v>1316.178875590492</v>
       </c>
       <c r="K16">
-        <v>2931.737007764625</v>
+        <v>2997.745700626013</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.0746062521614</v>
+        <v>84.76816744259779</v>
       </c>
       <c r="G17">
-        <v>31.96166663237036</v>
+        <v>30.96609366989337</v>
       </c>
       <c r="H17">
-        <v>1470.505574634853</v>
+        <v>1471.071775138366</v>
       </c>
       <c r="I17">
-        <v>-994.227738580407</v>
+        <v>-968.74171903124</v>
       </c>
       <c r="J17">
-        <v>1248.400857155599</v>
+        <v>1282.773257994883</v>
       </c>
       <c r="K17">
-        <v>2936.434343664208</v>
+        <v>2886.944218215032</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.32861744519059</v>
+        <v>81.47659840840053</v>
       </c>
       <c r="G18">
-        <v>47.30803387194089</v>
+        <v>49.78019936928049</v>
       </c>
       <c r="H18">
-        <v>1440.19400708786</v>
+        <v>1519.153276010798</v>
       </c>
       <c r="I18">
-        <v>-897.7077227851496</v>
+        <v>-911.7634556149679</v>
       </c>
       <c r="J18">
-        <v>1252.239747158942</v>
+        <v>1163.438118677649</v>
       </c>
       <c r="K18">
-        <v>2924.891596858299</v>
+        <v>3191.295376064653</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.84712393910716</v>
+        <v>75.25154730990914</v>
       </c>
       <c r="G19">
-        <v>66.31513231257446</v>
+        <v>67.4538580000364</v>
       </c>
       <c r="H19">
-        <v>1603.87959045122</v>
+        <v>1573.504040354507</v>
       </c>
       <c r="I19">
-        <v>-840.7841742264038</v>
+        <v>-870.9138321075518</v>
       </c>
       <c r="J19">
-        <v>1131.849878804055</v>
+        <v>1129.245235033192</v>
       </c>
       <c r="K19">
-        <v>3145.477673781729</v>
+        <v>3216.30154148165</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.0091377776171</v>
+        <v>71.01587818702717</v>
       </c>
       <c r="G20">
-        <v>84.89647793795271</v>
+        <v>84.73686529709965</v>
       </c>
       <c r="H20">
-        <v>1632.10808109558</v>
+        <v>1501.455142102479</v>
       </c>
       <c r="I20">
-        <v>-861.9663491151678</v>
+        <v>-816.573144173261</v>
       </c>
       <c r="J20">
-        <v>1163.270352052152</v>
+        <v>1126.521686641349</v>
       </c>
       <c r="K20">
-        <v>3225.935243727502</v>
+        <v>3090.758872955371</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>74.48055880045611</v>
+        <v>69.77760301216368</v>
       </c>
       <c r="G21">
-        <v>101.053094273193</v>
+        <v>94.83617280887941</v>
       </c>
       <c r="H21">
-        <v>1622.398824045099</v>
+        <v>1546.172104646733</v>
       </c>
       <c r="I21">
-        <v>-826.8019773937017</v>
+        <v>-793.3613034737435</v>
       </c>
       <c r="J21">
-        <v>1125.434229946079</v>
+        <v>1092.250125070494</v>
       </c>
       <c r="K21">
-        <v>3193.608221266233</v>
+        <v>3110.478206719593</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.02044347273481</v>
+        <v>68.31650439181068</v>
       </c>
       <c r="G22">
-        <v>112.1649112277687</v>
+        <v>118.5823752402045</v>
       </c>
       <c r="H22">
-        <v>1679.292150626773</v>
+        <v>1669.829048131946</v>
       </c>
       <c r="I22">
-        <v>-727.2718899187281</v>
+        <v>-735.4233205374192</v>
       </c>
       <c r="J22">
-        <v>1025.932492791583</v>
+        <v>1074.566153755045</v>
       </c>
       <c r="K22">
-        <v>3130.767556344927</v>
+        <v>3066.125653572408</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.56478524405951</v>
+        <v>67.36268874681782</v>
       </c>
       <c r="G23">
-        <v>126.312415720687</v>
+        <v>137.5805439981094</v>
       </c>
       <c r="H23">
-        <v>1581.161388979662</v>
+        <v>1592.143200564556</v>
       </c>
       <c r="I23">
-        <v>-720.3375837974711</v>
+        <v>-731.0620218145785</v>
       </c>
       <c r="J23">
-        <v>942.3492863518784</v>
+        <v>977.6858050083463</v>
       </c>
       <c r="K23">
-        <v>3056.083313604629</v>
+        <v>3132.502416842892</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.05154693522977</v>
+        <v>66.34229643104149</v>
       </c>
       <c r="G24">
-        <v>147.4514782532113</v>
+        <v>145.6446841782265</v>
       </c>
       <c r="H24">
-        <v>1729.058078810269</v>
+        <v>1589.648265865787</v>
       </c>
       <c r="I24">
-        <v>-654.2240742836985</v>
+        <v>-646.8282467623973</v>
       </c>
       <c r="J24">
-        <v>945.8705350820511</v>
+        <v>929.835770664548</v>
       </c>
       <c r="K24">
-        <v>3329.421475894913</v>
+        <v>3034.636115554197</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.80842223254167</v>
+        <v>60.10799332114279</v>
       </c>
       <c r="G25">
-        <v>169.281797870727</v>
+        <v>158.1957045551667</v>
       </c>
       <c r="H25">
-        <v>1669.095063876577</v>
+        <v>1659.055056247104</v>
       </c>
       <c r="I25">
-        <v>-585.6780582593966</v>
+        <v>-608.6601040201025</v>
       </c>
       <c r="J25">
-        <v>838.9731180432361</v>
+        <v>867.2487657000595</v>
       </c>
       <c r="K25">
-        <v>3111.507980806908</v>
+        <v>3228.536181016325</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.49379543162025</v>
+        <v>60.67777364030943</v>
       </c>
       <c r="G26">
-        <v>172.3536838382766</v>
+        <v>173.5625448089581</v>
       </c>
       <c r="H26">
-        <v>1682.558157022156</v>
+        <v>1657.97200482508</v>
       </c>
       <c r="I26">
-        <v>-535.6746968220341</v>
+        <v>-550.2911063317584</v>
       </c>
       <c r="J26">
-        <v>796.8906813312541</v>
+        <v>825.3335725672199</v>
       </c>
       <c r="K26">
-        <v>3167.758693706372</v>
+        <v>3058.777524490647</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.93233686101056</v>
+        <v>58.62662086067677</v>
       </c>
       <c r="G27">
-        <v>195.1809396038776</v>
+        <v>192.6624614865493</v>
       </c>
       <c r="H27">
-        <v>1708.287597013805</v>
+        <v>1632.305903830915</v>
       </c>
       <c r="I27">
-        <v>-512.4947763607017</v>
+        <v>-511.8606847674668</v>
       </c>
       <c r="J27">
-        <v>754.403788349404</v>
+        <v>778.205426982798</v>
       </c>
       <c r="K27">
-        <v>3054.107343879609</v>
+        <v>2962.571316809239</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.54508125225068</v>
+        <v>58.33132499329357</v>
       </c>
       <c r="G28">
-        <v>212.3185813326987</v>
+        <v>204.6489963074424</v>
       </c>
       <c r="H28">
-        <v>1703.968221037424</v>
+        <v>1644.126084953153</v>
       </c>
       <c r="I28">
-        <v>-459.5470050369132</v>
+        <v>-421.8619720697611</v>
       </c>
       <c r="J28">
-        <v>708.3748614993758</v>
+        <v>729.8301945784301</v>
       </c>
       <c r="K28">
-        <v>2882.766299672307</v>
+        <v>3022.369932907136</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.4923526162174</v>
+        <v>55.24649393966212</v>
       </c>
       <c r="G29">
-        <v>229.8171635504755</v>
+        <v>227.8501555875099</v>
       </c>
       <c r="H29">
-        <v>1734.197109737612</v>
+        <v>1808.249396780016</v>
       </c>
       <c r="I29">
-        <v>-369.2547301615265</v>
+        <v>-366.8442593409876</v>
       </c>
       <c r="J29">
-        <v>671.2879484816432</v>
+        <v>652.8358864008719</v>
       </c>
       <c r="K29">
-        <v>2819.62711104752</v>
+        <v>2897.231321287286</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>56.33610216030502</v>
+        <v>53.02262734223171</v>
       </c>
       <c r="G30">
-        <v>239.6808601767164</v>
+        <v>253.248097864015</v>
       </c>
       <c r="H30">
-        <v>1801.034389498617</v>
+        <v>1811.44848833347</v>
       </c>
       <c r="I30">
-        <v>-322.3983256318803</v>
+        <v>-309.9575411678621</v>
       </c>
       <c r="J30">
-        <v>652.3837901030845</v>
+        <v>632.1349269872095</v>
       </c>
       <c r="K30">
-        <v>2817.895831516849</v>
+        <v>2691.328343920866</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.25377519781845</v>
+        <v>53.57241227051345</v>
       </c>
       <c r="G31">
-        <v>268.2633278315915</v>
+        <v>269.4099579907006</v>
       </c>
       <c r="H31">
-        <v>1774.27883871334</v>
+        <v>1745.852264461922</v>
       </c>
       <c r="I31">
-        <v>-280.388516388918</v>
+        <v>-273.9329881635811</v>
       </c>
       <c r="J31">
-        <v>565.446943734976</v>
+        <v>582.2387043699642</v>
       </c>
       <c r="K31">
-        <v>2774.734442726854</v>
+        <v>2777.168292765503</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.36771931970147</v>
+        <v>49.27844231987734</v>
       </c>
       <c r="G32">
-        <v>268.5105987791762</v>
+        <v>276.1114648526495</v>
       </c>
       <c r="H32">
-        <v>1870.477126062438</v>
+        <v>1745.734240328854</v>
       </c>
       <c r="I32">
-        <v>-205.5948046011811</v>
+        <v>-217.971760087809</v>
       </c>
       <c r="J32">
-        <v>554.7097684112215</v>
+        <v>538.7318887994294</v>
       </c>
       <c r="K32">
-        <v>2448.703865574441</v>
+        <v>2411.35458180735</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.9941062709722</v>
+        <v>52.24195160847283</v>
       </c>
       <c r="G33">
-        <v>296.5929206206383</v>
+        <v>291.7305695727873</v>
       </c>
       <c r="H33">
-        <v>1733.023371828033</v>
+        <v>1862.491799693886</v>
       </c>
       <c r="I33">
-        <v>-148.7787624125301</v>
+        <v>-151.6353278604571</v>
       </c>
       <c r="J33">
-        <v>481.9929960187321</v>
+        <v>513.9831999694258</v>
       </c>
       <c r="K33">
-        <v>2484.822951776851</v>
+        <v>2297.555729833353</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.024312957894</v>
+        <v>49.8040597601811</v>
       </c>
       <c r="G34">
-        <v>326.3253153278319</v>
+        <v>304.6561205977111</v>
       </c>
       <c r="H34">
-        <v>1831.998980780171</v>
+        <v>1733.21257648906</v>
       </c>
       <c r="I34">
-        <v>-84.75762675255852</v>
+        <v>-86.57427024791707</v>
       </c>
       <c r="J34">
-        <v>450.9570660235127</v>
+        <v>429.2709342603274</v>
       </c>
       <c r="K34">
-        <v>2288.744126792357</v>
+        <v>2204.681253011688</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.26256133161101</v>
+        <v>47.17955899238816</v>
       </c>
       <c r="G35">
-        <v>340.455239868468</v>
+        <v>332.704305363167</v>
       </c>
       <c r="H35">
-        <v>1731.533743965907</v>
+        <v>1757.274188070581</v>
       </c>
       <c r="I35">
-        <v>-19.54504547352893</v>
+        <v>-19.27912848978719</v>
       </c>
       <c r="J35">
-        <v>384.4419994467723</v>
+        <v>377.3258543499585</v>
       </c>
       <c r="K35">
-        <v>2057.055074392285</v>
+        <v>2103.109680998738</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.05618888974958</v>
+        <v>47.28154289688701</v>
       </c>
       <c r="G36">
-        <v>352.3358004052577</v>
+        <v>351.5543495138255</v>
       </c>
       <c r="H36">
-        <v>1741.925165188517</v>
+        <v>1752.195023067995</v>
       </c>
       <c r="I36">
-        <v>49.20025837233084</v>
+        <v>47.31858585138777</v>
       </c>
       <c r="J36">
-        <v>351.4314804306339</v>
+        <v>360.4940209994944</v>
       </c>
       <c r="K36">
-        <v>1811.611494065009</v>
+        <v>1768.307778921514</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.57470818403647</v>
+        <v>47.82034286145992</v>
       </c>
       <c r="G37">
-        <v>350.5510718540893</v>
+        <v>367.2647882438139</v>
       </c>
       <c r="H37">
-        <v>1862.83514581115</v>
+        <v>1753.962939175392</v>
       </c>
       <c r="I37">
-        <v>117.5740512469947</v>
+        <v>110.6481897146679</v>
       </c>
       <c r="J37">
-        <v>299.3672723426193</v>
+        <v>298.8770434632933</v>
       </c>
       <c r="K37">
-        <v>1591.569024222043</v>
+        <v>1619.184646485956</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.0248011660146</v>
+        <v>47.44744451686903</v>
       </c>
       <c r="G38">
-        <v>396.4987193801769</v>
+        <v>390.9755901457162</v>
       </c>
       <c r="H38">
-        <v>1937.007917591643</v>
+        <v>1939.224563562543</v>
       </c>
       <c r="I38">
-        <v>187.8537584505315</v>
+        <v>178.8345239713121</v>
       </c>
       <c r="J38">
-        <v>253.1358519414584</v>
+        <v>254.7294501148939</v>
       </c>
       <c r="K38">
-        <v>1378.756114638571</v>
+        <v>1439.031734400058</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.36319125672443</v>
+        <v>44.49253857987988</v>
       </c>
       <c r="G39">
-        <v>390.5762279859953</v>
+        <v>380.1255060554425</v>
       </c>
       <c r="H39">
-        <v>1855.32024633192</v>
+        <v>1887.527080192717</v>
       </c>
       <c r="I39">
-        <v>261.7977528619213</v>
+        <v>255.83395267718</v>
       </c>
       <c r="J39">
-        <v>196.3706862825326</v>
+        <v>204.551713174428</v>
       </c>
       <c r="K39">
-        <v>1178.871447751736</v>
+        <v>1198.984624750439</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.95523776233873</v>
+        <v>43.71737925610108</v>
       </c>
       <c r="G40">
-        <v>421.3924043841666</v>
+        <v>403.7619938858813</v>
       </c>
       <c r="H40">
-        <v>1949.333166511387</v>
+        <v>1826.748704179745</v>
       </c>
       <c r="I40">
-        <v>331.9884908850842</v>
+        <v>337.0777476780669</v>
       </c>
       <c r="J40">
-        <v>148.0063537520249</v>
+        <v>143.9151416975139</v>
       </c>
       <c r="K40">
-        <v>880.2916051165573</v>
+        <v>885.3460524801478</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.34438148778915</v>
+        <v>43.56190095798634</v>
       </c>
       <c r="G41">
-        <v>434.1664948942304</v>
+        <v>437.9575598970249</v>
       </c>
       <c r="H41">
-        <v>1801.635125056718</v>
+        <v>1963.720609332644</v>
       </c>
       <c r="I41">
-        <v>403.583221099579</v>
+        <v>410.8265218625758</v>
       </c>
       <c r="J41">
-        <v>102.303974760423</v>
+        <v>101.0081605110747</v>
       </c>
       <c r="K41">
-        <v>623.8091998219837</v>
+        <v>644.3958411132712</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.42496273175074</v>
+        <v>41.31883729826222</v>
       </c>
       <c r="G42">
-        <v>460.2757784820928</v>
+        <v>432.6082753478193</v>
       </c>
       <c r="H42">
-        <v>1802.900988393166</v>
+        <v>1841.86526895995</v>
       </c>
       <c r="I42">
-        <v>477.1206429673707</v>
+        <v>459.794300440921</v>
       </c>
       <c r="J42">
-        <v>54.14309078595081</v>
+        <v>52.32828595873679</v>
       </c>
       <c r="K42">
-        <v>352.4369687078664</v>
+        <v>346.0903063738539</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.13598820257783</v>
+        <v>42.73273687880089</v>
       </c>
       <c r="G43">
-        <v>441.115089512286</v>
+        <v>479.0426374716864</v>
       </c>
       <c r="H43">
-        <v>1935.236769859555</v>
+        <v>1926.700149235434</v>
       </c>
       <c r="I43">
-        <v>574.0965275571129</v>
+        <v>584.2538141251688</v>
       </c>
       <c r="J43">
-        <v>5.317476478121246</v>
+        <v>5.222159098549827</v>
       </c>
       <c r="K43">
-        <v>33.04460425993345</v>
+        <v>35.03995638128989</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.25276192790266</v>
+        <v>40.83573809576952</v>
       </c>
       <c r="G44">
-        <v>470.8941606233288</v>
+        <v>498.2574499248973</v>
       </c>
       <c r="H44">
-        <v>1814.60964920853</v>
+        <v>1908.499899546125</v>
       </c>
       <c r="I44">
-        <v>657.303016126186</v>
+        <v>625.7641997868244</v>
       </c>
       <c r="J44">
-        <v>-42.17553939862066</v>
+        <v>-43.0526143533132</v>
       </c>
       <c r="K44">
-        <v>-296.984718373554</v>
+        <v>-285.4970643035638</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.93791789405643</v>
+        <v>42.0806102029833</v>
       </c>
       <c r="G45">
-        <v>488.5343989689561</v>
+        <v>473.4204395263644</v>
       </c>
       <c r="H45">
-        <v>1925.27076334205</v>
+        <v>1983.231229805335</v>
       </c>
       <c r="I45">
-        <v>690.2879845273023</v>
+        <v>738.3520542960724</v>
       </c>
       <c r="J45">
-        <v>-92.99089824546012</v>
+        <v>-90.91066606440063</v>
       </c>
       <c r="K45">
-        <v>-644.0820262424933</v>
+        <v>-588.1016933148285</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.48447133874118</v>
+        <v>39.93519614704131</v>
       </c>
       <c r="G46">
-        <v>486.4471408414387</v>
+        <v>517.1076733712382</v>
       </c>
       <c r="H46">
-        <v>1919.098125142521</v>
+        <v>1841.567298810516</v>
       </c>
       <c r="I46">
-        <v>795.2437097208273</v>
+        <v>826.3600151695651</v>
       </c>
       <c r="J46">
-        <v>-140.3935600167264</v>
+        <v>-143.9029740688246</v>
       </c>
       <c r="K46">
-        <v>-965.8647618383601</v>
+        <v>-978.7624958342361</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.62991006436565</v>
+        <v>40.52704829186874</v>
       </c>
       <c r="G47">
-        <v>522.3654362163259</v>
+        <v>551.5818293307614</v>
       </c>
       <c r="H47">
-        <v>1873.722893467381</v>
+        <v>1933.932965593432</v>
       </c>
       <c r="I47">
-        <v>901.3938081254214</v>
+        <v>925.3674473484194</v>
       </c>
       <c r="J47">
-        <v>-194.5538272595053</v>
+        <v>-183.6663726343199</v>
       </c>
       <c r="K47">
-        <v>-1347.435814098098</v>
+        <v>-1307.245772644195</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.35302744689323</v>
+        <v>40.54527561280028</v>
       </c>
       <c r="G48">
-        <v>564.9021467178778</v>
+        <v>542.2392132194196</v>
       </c>
       <c r="H48">
-        <v>1941.372981579549</v>
+        <v>1957.375825035861</v>
       </c>
       <c r="I48">
-        <v>1021.94660618762</v>
+        <v>985.6343963335279</v>
       </c>
       <c r="J48">
-        <v>-242.4637363025522</v>
+        <v>-244.238068749542</v>
       </c>
       <c r="K48">
-        <v>-1738.815268817221</v>
+        <v>-1671.141078755869</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.39948230403254</v>
+        <v>39.45407923751432</v>
       </c>
       <c r="G49">
-        <v>541.5852000889785</v>
+        <v>579.6958163797228</v>
       </c>
       <c r="H49">
-        <v>1920.836036921464</v>
+        <v>1993.91478935292</v>
       </c>
       <c r="I49">
-        <v>1024.096218532731</v>
+        <v>1055.678565446599</v>
       </c>
       <c r="J49">
-        <v>-282.8680884545275</v>
+        <v>-290.5620291124453</v>
       </c>
       <c r="K49">
-        <v>-2117.674976882172</v>
+        <v>-2019.361898174111</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.11343966438321</v>
+        <v>39.82111525048338</v>
       </c>
       <c r="G50">
-        <v>584.0887156693625</v>
+        <v>579.0475391532779</v>
       </c>
       <c r="H50">
-        <v>1993.228448360606</v>
+        <v>1982.649622789904</v>
       </c>
       <c r="I50">
-        <v>1115.054070564778</v>
+        <v>1217.411951496272</v>
       </c>
       <c r="J50">
-        <v>-322.0740072336594</v>
+        <v>-352.0395033865366</v>
       </c>
       <c r="K50">
-        <v>-2564.60178561695</v>
+        <v>-2540.103238536293</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.02573662834882</v>
+        <v>39.60993956949581</v>
       </c>
       <c r="G51">
-        <v>573.1014937834699</v>
+        <v>610.95245130944</v>
       </c>
       <c r="H51">
-        <v>2047.76259031813</v>
+        <v>1953.512978899935</v>
       </c>
       <c r="I51">
-        <v>1276.080480218107</v>
+        <v>1272.270117627272</v>
       </c>
       <c r="J51">
-        <v>-380.9515236673257</v>
+        <v>-391.663137544978</v>
       </c>
       <c r="K51">
-        <v>-2811.344380204881</v>
+        <v>-3063.670427979376</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.71296866017087</v>
+        <v>38.5028438803514</v>
       </c>
       <c r="G52">
-        <v>584.4389951492985</v>
+        <v>593.4608414475507</v>
       </c>
       <c r="H52">
-        <v>2030.55724973133</v>
+        <v>1981.427481662713</v>
       </c>
       <c r="I52">
-        <v>1392.790075386602</v>
+        <v>1391.060032246872</v>
       </c>
       <c r="J52">
-        <v>-441.6531788965663</v>
+        <v>-416.413673578235</v>
       </c>
       <c r="K52">
-        <v>-3457.895997276019</v>
+        <v>-3244.428833180742</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.79706784009446</v>
+        <v>35.68998570800223</v>
       </c>
       <c r="G53">
-        <v>623.0973208909523</v>
+        <v>625.3593868425362</v>
       </c>
       <c r="H53">
-        <v>1947.854859191276</v>
+        <v>1999.301395366746</v>
       </c>
       <c r="I53">
-        <v>1393.167963528762</v>
+        <v>1515.757914437514</v>
       </c>
       <c r="J53">
-        <v>-493.2683989147515</v>
+        <v>-502.4629368865178</v>
       </c>
       <c r="K53">
-        <v>-3777.447002061502</v>
+        <v>-3719.761520789137</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.01139744435787</v>
+        <v>36.72082429892674</v>
       </c>
       <c r="G54">
-        <v>651.0335007394998</v>
+        <v>673.3532776877536</v>
       </c>
       <c r="H54">
-        <v>2049.918761380278</v>
+        <v>2074.551367071708</v>
       </c>
       <c r="I54">
-        <v>1596.484210664527</v>
+        <v>1551.787902488114</v>
       </c>
       <c r="J54">
-        <v>-529.3237237313124</v>
+        <v>-525.131115661226</v>
       </c>
       <c r="K54">
-        <v>-4240.683898057549</v>
+        <v>-4204.396590460332</v>
       </c>
     </row>
   </sheetData>
